--- a/admin/dashulin.xlsx
+++ b/admin/dashulin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25680" windowHeight="9900"/>
+    <workbookView windowWidth="24740" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="数据示范" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
     <t>只支持3位小数</t>
   </si>
   <si>
-    <t>积分和Rate，目前还需要自行计算。如果你们的R计算后是1432.123这样保留3位小数的做法，建议录入时统一×1000=1432123</t>
+    <t>Rate支持3位小数，别的只能输入整数</t>
   </si>
   <si>
     <t>导入方法：打开Excel，全选整个表，复制，粘贴到网页的文本框里即可。多余的注释信息（1~4行）能自动过滤</t>
@@ -398,11 +398,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000_ ;[Red]\-0.000\ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -452,6 +452,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -460,8 +474,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,9 +505,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,7 +539,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,79 +575,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -627,13 +627,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,19 +663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,13 +681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,7 +693,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,67 +729,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,6 +753,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -795,7 +795,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,17 +870,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,6 +903,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -911,15 +940,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,167 +958,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1542,7 +1542,7 @@
   <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I4" sqref="I4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02884615384615" defaultRowHeight="12"/>
